--- a/ykodama/ddbj_packages/excel/Human.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Human.1.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>age at the time of sampling</t>
+          <t>age at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees</t>
         </r>
       </text>
     </comment>
@@ -132,7 +132,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Identification of the specific individual</t>
+          <t>Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -197,7 +197,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of source institute and unique culture identifier. See http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
         </r>
       </text>
     </comment>
@@ -223,7 +223,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of diseases diagnosed</t>
+          <t>list of diseases diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from DO (Disease Ontology), free text for non-human. For DO terms, please see http://gemina.svn.sourceforge.net/viewvc/gemina/trunk/Gemina/ontologies/gemina_symptom.obo?view=log</t>
         </r>
       </text>
     </comment>
@@ -262,7 +262,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information regarding health state of the individual</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -275,7 +275,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Phenotype of sampled organism</t>
+          <t>Phenotype of sampled organism. For Phenotypic quality Ontology (PATO) (v1.269) terms, please see http://bioportal.bioontology.org/visualize/44601</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>for human: ; for plants: filial generation, number of progeny, genetic structure</t>
         </r>
       </text>
     </comment>
@@ -288,7 +301,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sample type, such as cell culture, tissue sample, whole organism.</t>
+          <t>Sample type, such as cell culture, mixed culture, tissue sample, whole organism, single cell, metagenomic assembly</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/Human.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Human.1.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,149 +159,6 @@
             <family val="2"/>
           </rPr>
           <t>Type of tissue the sample was taken from.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name of the cell line.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of cell of the sample or from which the sample was obtained.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Developmental stage at the time of sampling.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>list of diseases diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from DO (Disease Ontology), free text for non-human. For DO terms, please see http://gemina.svn.sourceforge.net/viewvc/gemina/trunk/Gemina/ontologies/gemina_symptom.obo?view=log</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stage of disease at the time of sampling.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ethnicity of the subject</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Health or disease status of sample at time of collection</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Phenotype of sampled organism. For Phenotypic quality Ontology (PATO) (v1.269) terms, please see http://bioportal.bioontology.org/visualize/44601</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>for human: ; for plants: filial generation, number of progeny, genetic structure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sample type, such as cell culture, mixed culture, tissue sample, whole organism, single cell, metagenomic assembly</t>
         </r>
       </text>
     </comment>
@@ -310,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'Human; version 1.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -399,51 +256,6 @@
   </si>
   <si>
     <t>tissue</t>
-  </si>
-  <si>
-    <t>cell_line</t>
-  </si>
-  <si>
-    <t>cell_subtype</t>
-  </si>
-  <si>
-    <t>cell_type</t>
-  </si>
-  <si>
-    <t>culture_collection</t>
-  </si>
-  <si>
-    <t>dev_stage</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>disease_stage</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t>health_state</t>
-  </si>
-  <si>
-    <t>karyotype</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>sample_type</t>
-  </si>
-  <si>
-    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -849,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,149 +670,109 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1">
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1">
+    <row r="4" spans="1:11" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="5" customFormat="1">
+    <row r="5" spans="1:11" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/Human.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Human.1.0.xlsx
@@ -262,6 +262,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -346,7 +349,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/Human.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Human.1.0.xlsx
@@ -162,12 +162,155 @@
         </r>
       </text>
     </comment>
+    <comment ref="L15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of the cell line.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of cell of the sample or from which the sample was obtained.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Developmental stage at the time of sampling.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of diseases diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from DO (Disease Ontology), free text for non-human. For DO terms, please see http://gemina.svn.sourceforge.net/viewvc/gemina/trunk/Gemina/ontologies/gemina_symptom.obo?view=log</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stage of disease at the time of sampling.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ethnicity of the subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Health or disease status of sample at time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Phenotype of sampled organism. For Phenotypic quality Ontology (PATO) (v1.269) terms, please see http://bioportal.bioontology.org/visualize/44601</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>for human: ; for plants: filial generation, number of progeny, genetic structure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample type, such as cell culture, mixed culture, tissue sample, whole organism, single cell, metagenomic assembly</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'Human; version 1.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -256,6 +399,51 @@
   </si>
   <si>
     <t>tissue</t>
+  </si>
+  <si>
+    <t>cell_line</t>
+  </si>
+  <si>
+    <t>cell_subtype</t>
+  </si>
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>culture_collection</t>
+  </si>
+  <si>
+    <t>dev_stage</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>disease_stage</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>health_state</t>
+  </si>
+  <si>
+    <t>karyotype</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -673,77 +861,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" spans="1:26" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1">
+    <row r="4" spans="1:26" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
+    <row r="5" spans="1:26" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:26">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:26">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -776,6 +964,51 @@
       </c>
       <c r="K15" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
